--- a/code/table_datas.xlsx
+++ b/code/table_datas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_workspace\BayesianLaTex\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38069483-F9CF-4F52-8F1F-3E04A12D2722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80DD1A-C189-4773-A287-968E69BA2588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4359E3CB-FD6A-43D5-B9DD-8E6558BAF56E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>LI-NING China Masters 2024</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,38 @@
   </si>
   <si>
     <t>victory labels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anthony Sinisuka GINTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VICTOR China Open 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kantaphon WANGCHAROEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEE Cheuk Yiu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG Ka Long Angus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SON Wan Ho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea Open 2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main tournaments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -141,13 +173,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,10 +227,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,135 +561,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8E3070-0550-4187-BA88-5AD30B910192}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.9140625" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.58203125" customWidth="1"/>
-    <col min="5" max="5" width="9.9140625" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.9140625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.58203125" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="2:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
